--- a/Стас Гагров.xlsx
+++ b/Стас Гагров.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,7 @@
       <b val="1"/>
       <sz val="15"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,9 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,59 +436,435 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Гагров Стас.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Вымпелстрой,РМ, , табличка, выкрас № 5-2ЮО</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, Образцы, Фризы на Остров, ТЗ 14СФ</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -1</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойки, 35МК-2</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 24 СФ Бьюти драгс</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-7</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Color Бар, 14МК</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Джонсон &amp;Джонсон, 3D макет, 26 КК-3</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438-3 КК</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-6</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Инситех заказ 31 МК</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Инситех, Подложка, 13-1 МК</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, Эскизы, Вставки в Остров Диваж, ТЗ 8СФ-1</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="2" t="n"/>
+    </row>
     <row r="51"/>
     <row r="52"/>
     <row r="53"/>

--- a/Стас Гагров.xlsx
+++ b/Стас Гагров.xlsx
@@ -438,7 +438,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -456,12 +456,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+          <t>Лореаль, образец, полка, 215СФ СРОЧНО!!!!</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -471,12 +471,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+          <t>КИКИ , образец, подставка, 33МК</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Вымпелстрой,РМ, , табличка, выкрас № 5-2ЮО</t>
+          <t>Лореаль, Образец, Anthelios 2022 Навигация тендер, ТЗ 207СФ-2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+          <t>Лореаль, Образец., Баретки, 211СФ-2</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+          <t>КИКИ, образец, плашка с логотипом, 7МК-5</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Диваж, Образцы, Фризы на Остров, ТЗ 14СФ</t>
+          <t>Триумф, Образец, Подставка, 20МК-1</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+          <t>Кики, Образец, Стойки, 35МК-1</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14-01-2022</t>
+          <t>24-12-2021</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -1</t>
+          <t>Градиент, эталоны кассет , 353-10 КК</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Кики, Образец, Стойки, 35МК-2</t>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ-1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 24 СФ Бьюти драгс</t>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, 3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-7</t>
+          <t>Лореаль сигнал навигации 719СФ</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, 3Д, Color Бар, 14МК</t>
+          <t>Сигнал к бланку 732 СФ Лореаль лайнер бары</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Джонсон &amp;Джонсон, 3D макет, 26 КК-3</t>
+          <t>Сигнал к бланку 727 МК Исток аудио</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438-3 КК</t>
+          <t>Нинель Сигнал дисплея к бланку 708</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, 3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-6</t>
+          <t>Сигнал к бланку 719СФ Лореаль навигация</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>10-12-2021</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Инситех заказ 31 МК</t>
+          <t>Сигнал к бланку 711 СФ Лореаль кассета балм нуар</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Инситех, Подложка, 13-1 МК</t>
+          <t>Единая, Европа, 3Д, Стойка для АЗС_Deka, ТЗ 231СФ</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>22-12-2021</t>
         </is>
       </c>
     </row>
@@ -711,64 +711,164 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Диваж, Эскизы, Вставки в Остров Диваж, ТЗ 8СФ-1</t>
+          <t>Лореаль,3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ - 2</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="A22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Кики, 3Д, Стойки, 35МК</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="A23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Elemax, 3D,Стойка № 164 ЧЯ-5</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
+      <c r="A24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MUA, 3D, Гондола, 40МК</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
+      <c r="A25" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Вес Медиа, 3Д, витрины, 27МК</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
+      <c r="A26" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль,3Д, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ - 3</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
+      <c r="A27" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Aloe Serum posm luxe, ТЗ 216СФ</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
+      <c r="A28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Elemax, 3D, Оборудование №ТЗ 164 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
+      <c r="A29" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д., Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-4</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
+      <c r="A30" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Aloe Serum posm luxe, ТЗ 216СФ-2</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
+      <c r="A31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Триумф, замена в М.П., Подставки, 22МК-1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n"/>
